--- a/data/trans_orig/P44AS3-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P44AS3-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B2327F9-E452-4204-8CAF-15CB4BC520D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{76D8B35D-E923-4E88-A7EB-EAA3C1E5BB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6315C293-3D0C-4331-9FA5-AEE735EC2C07}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CEE233DC-0AAA-46A3-BEF5-62EA6631E4BF}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="102">
   <si>
     <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 3 en 2012 (Tasa respuesta: 0,25%)</t>
   </si>
@@ -184,7 +184,7 @@
     <t>12,39%</t>
   </si>
   <si>
-    <t>56,77%</t>
+    <t>57,32%</t>
   </si>
   <si>
     <t>70,64%</t>
@@ -205,7 +205,7 @@
     <t>68,37%</t>
   </si>
   <si>
-    <t>43,23%</t>
+    <t>42,68%</t>
   </si>
   <si>
     <t>87,61%</t>
@@ -232,37 +232,31 @@
     <t>24,61%</t>
   </si>
   <si>
-    <t>77,66%</t>
-  </si>
-  <si>
     <t>75,39%</t>
   </si>
   <si>
-    <t>22,34%</t>
-  </si>
-  <si>
     <t>12,82%</t>
   </si>
   <si>
-    <t>52,38%</t>
+    <t>54,81%</t>
   </si>
   <si>
     <t>8,33%</t>
   </si>
   <si>
-    <t>34,92%</t>
+    <t>42,04%</t>
   </si>
   <si>
     <t>87,18%</t>
   </si>
   <si>
-    <t>47,62%</t>
+    <t>45,19%</t>
   </si>
   <si>
     <t>91,67%</t>
   </si>
   <si>
-    <t>65,08%</t>
+    <t>57,96%</t>
   </si>
   <si>
     <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 3 en 2023 (Tasa respuesta: 0,64%)</t>
@@ -274,13 +268,13 @@
     <t>4,67%</t>
   </si>
   <si>
-    <t>27,01%</t>
+    <t>28,12%</t>
   </si>
   <si>
     <t>2,77%</t>
   </si>
   <si>
-    <t>16,65%</t>
+    <t>15,3%</t>
   </si>
   <si>
     <t>76,75%</t>
@@ -289,13 +283,13 @@
     <t>95,33%</t>
   </si>
   <si>
-    <t>72,99%</t>
+    <t>71,88%</t>
   </si>
   <si>
     <t>97,23%</t>
   </si>
   <si>
-    <t>83,35%</t>
+    <t>84,7%</t>
   </si>
   <si>
     <t>11,83%</t>
@@ -328,13 +322,13 @@
     <t>2,19%</t>
   </si>
   <si>
-    <t>11,69%</t>
+    <t>13,09%</t>
   </si>
   <si>
     <t>0,41%</t>
   </si>
   <si>
-    <t>2,83%</t>
+    <t>2,74%</t>
   </si>
   <si>
     <t>93,43%</t>
@@ -343,13 +337,13 @@
     <t>97,81%</t>
   </si>
   <si>
-    <t>88,31%</t>
+    <t>86,91%</t>
   </si>
   <si>
     <t>99,59%</t>
   </si>
   <si>
-    <t>97,17%</t>
+    <t>97,26%</t>
   </si>
 </sst>
 </file>
@@ -761,7 +755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5AD5C5-F0E2-4155-80EE-81D30FAB6A3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC73DC0-EC1C-4432-AD9B-0C748DE4ADC6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1506,7 +1500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2AD547-15DC-46ED-99E9-C623EBD68CAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD38206-B395-40EF-84B7-B329C6F546BB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1791,7 +1785,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1819,7 +1813,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1834,10 +1828,10 @@
         <v>3180</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>22</v>
@@ -1862,10 +1856,10 @@
         <v>3180</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>22</v>
@@ -2089,13 +2083,13 @@
         <v>1038</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2119,13 +2113,13 @@
         <v>1038</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2140,10 +2134,10 @@
         <v>7056</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>22</v>
@@ -2170,10 +2164,10 @@
         <v>11427</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>22</v>
@@ -2251,7 +2245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A8A41B6-146A-4A9A-BD7F-4469AB91FA2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A0714D-BFBB-4AF1-A858-F81DE85A61EF}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2268,7 +2262,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2381,7 +2375,7 @@
         <v>31</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2390,13 +2384,13 @@
         <v>385</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -2405,13 +2399,13 @@
         <v>385</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2429,7 +2423,7 @@
         <v>22</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>28</v>
@@ -2441,10 +2435,10 @@
         <v>7862</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>22</v>
@@ -2456,10 +2450,10 @@
         <v>13516</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>22</v>
@@ -2536,7 +2530,7 @@
         <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2551,7 +2545,7 @@
         <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2566,7 +2560,7 @@
         <v>31</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2584,7 +2578,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>28</v>
@@ -2599,7 +2593,7 @@
         <v>22</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>28</v>
@@ -2614,7 +2608,7 @@
         <v>22</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>28</v>
@@ -2691,7 +2685,7 @@
         <v>31</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2721,7 +2715,7 @@
         <v>31</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2739,7 +2733,7 @@
         <v>22</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>28</v>
@@ -2769,7 +2763,7 @@
         <v>22</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>28</v>
@@ -2846,7 +2840,7 @@
         <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2855,13 +2849,13 @@
         <v>385</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -2870,13 +2864,13 @@
         <v>385</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2894,7 +2888,7 @@
         <v>22</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>28</v>
@@ -2906,10 +2900,10 @@
         <v>17192</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>22</v>
@@ -2921,10 +2915,10 @@
         <v>92940</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>22</v>

--- a/data/trans_orig/P44AS3-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P44AS3-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76D8B35D-E923-4E88-A7EB-EAA3C1E5BB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87E78EFD-8AB9-449E-AD30-A17B2750D834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CEE233DC-0AAA-46A3-BEF5-62EA6631E4BF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{94DBB2E8-DCCF-452A-81A2-C91AF0B28456}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -79,22 +79,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>76,22%</t>
+    <t>90,32%</t>
   </si>
   <si>
     <t>28,4%</t>
   </si>
   <si>
-    <t>71,72%</t>
+    <t>71,33%</t>
   </si>
   <si>
     <t>27,44%</t>
   </si>
   <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
   </si>
   <si>
     <t>Endoscopia (Colonoscopia/Sigmoidoscopia/Rectoscopia)</t>
@@ -103,7 +103,7 @@
     <t>74,32%</t>
   </si>
   <si>
-    <t>23,78%</t>
+    <t>9,68%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -112,16 +112,16 @@
     <t>71,6%</t>
   </si>
   <si>
-    <t>28,28%</t>
+    <t>28,67%</t>
   </si>
   <si>
     <t>72,56%</t>
   </si>
   <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
   </si>
   <si>
     <t>100%</t>
@@ -142,9 +142,6 @@
     <t>25,33%</t>
   </si>
   <si>
-    <t>75,64%</t>
-  </si>
-  <si>
     <t>65,98%</t>
   </si>
   <si>
@@ -154,9 +151,6 @@
     <t>74,67%</t>
   </si>
   <si>
-    <t>24,36%</t>
-  </si>
-  <si>
     <t>Universitarios</t>
   </si>
   <si>
@@ -166,55 +160,55 @@
     <t>29,36%</t>
   </si>
   <si>
-    <t>72,22%</t>
+    <t>75,77%</t>
   </si>
   <si>
     <t>33,34%</t>
   </si>
   <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
   </si>
   <si>
     <t>31,63%</t>
   </si>
   <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
   </si>
   <si>
     <t>70,64%</t>
   </si>
   <si>
-    <t>27,78%</t>
+    <t>24,23%</t>
   </si>
   <si>
     <t>66,66%</t>
   </si>
   <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
   </si>
   <si>
     <t>68,37%</t>
   </si>
   <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 3 en 2015 (Tasa respuesta: 0,18%)</t>
+    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 3 en 2016 (Tasa respuesta: 0,18%)</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -232,31 +226,37 @@
     <t>24,61%</t>
   </si>
   <si>
+    <t>88,99%</t>
+  </si>
+  <si>
     <t>75,39%</t>
   </si>
   <si>
+    <t>11,01%</t>
+  </si>
+  <si>
     <t>12,82%</t>
   </si>
   <si>
-    <t>54,81%</t>
+    <t>64,67%</t>
   </si>
   <si>
     <t>8,33%</t>
   </si>
   <si>
-    <t>42,04%</t>
+    <t>34,24%</t>
   </si>
   <si>
     <t>87,18%</t>
   </si>
   <si>
-    <t>45,19%</t>
+    <t>35,33%</t>
   </si>
   <si>
     <t>91,67%</t>
   </si>
   <si>
-    <t>57,96%</t>
+    <t>65,76%</t>
   </si>
   <si>
     <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 3 en 2023 (Tasa respuesta: 0,64%)</t>
@@ -755,7 +755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC73DC0-EC1C-4432-AD9B-0C748DE4ADC6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C5EABEF-4C9A-44B3-BCFD-7A2B86D3B89D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1070,7 +1070,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1085,7 +1085,7 @@
         <v>2073</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
@@ -1103,7 +1103,7 @@
         <v>22</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>28</v>
@@ -1115,10 +1115,10 @@
         <v>3149</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>22</v>
@@ -1177,7 +1177,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1187,13 +1187,13 @@
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -1205,7 +1205,7 @@
         <v>22</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>28</v>
@@ -1220,7 +1220,7 @@
         <v>22</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>28</v>
@@ -1236,13 +1236,13 @@
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1285,13 +1285,13 @@
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -1338,13 +1338,13 @@
         <v>2091</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -1353,13 +1353,13 @@
         <v>3144</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -1368,13 +1368,13 @@
         <v>5235</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1389,10 +1389,10 @@
         <v>5032</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>22</v>
@@ -1404,13 +1404,13 @@
         <v>6284</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="M14" s="7">
         <v>11</v>
@@ -1419,13 +1419,13 @@
         <v>11316</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1481,7 +1481,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1500,7 +1500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD38206-B395-40EF-84B7-B329C6F546BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A16CFE6-9D1C-4379-8943-406EC7E23AB4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1517,7 +1517,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1645,7 +1645,7 @@
         <v>31</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>31</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1678,7 +1678,7 @@
         <v>22</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>28</v>
@@ -1693,7 +1693,7 @@
         <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>28</v>
@@ -1708,7 +1708,7 @@
         <v>22</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>28</v>
@@ -1779,26 +1779,26 @@
         <v>1038</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -1807,13 +1807,13 @@
         <v>1038</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1828,10 +1828,10 @@
         <v>3180</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>22</v>
@@ -1841,13 +1841,13 @@
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -1856,10 +1856,10 @@
         <v>3180</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>22</v>
@@ -1890,13 +1890,13 @@
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -1916,7 +1916,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1934,7 +1934,7 @@
         <v>31</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1964,7 +1964,7 @@
         <v>31</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1982,7 +1982,7 @@
         <v>22</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>28</v>
@@ -1997,7 +1997,7 @@
         <v>22</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>28</v>
@@ -2012,7 +2012,7 @@
         <v>22</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>28</v>
@@ -2104,7 +2104,7 @@
         <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -2152,7 +2152,7 @@
         <v>22</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>28</v>
@@ -2226,7 +2226,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2245,7 +2245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A0714D-BFBB-4AF1-A858-F81DE85A61EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA6FD596-DF7F-416B-8549-DA3E7D82FE8F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2667,7 +2667,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2748,7 +2748,7 @@
         <v>22</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>28</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
